--- a/Manual Annotation And Data/output_section_codes - Manual Input.xlsx
+++ b/Manual Annotation And Data/output_section_codes - Manual Input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lancelot\PycharmProjects\ensf612Project\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayod\OneDrive\Desktop\master\Uoc\612_BigData\PROJECT STUFF\ensf-612-project\Manual Annotation And Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799BA1F-EE64-44D7-AB58-DF0824A8168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="2985" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_section_codes - Manual I" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="982">
   <si>
     <t>file_id</t>
   </si>
@@ -2957,12 +2958,21 @@
   </si>
   <si>
     <t>Mike</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>1, 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3099,7 +3109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3279,6 +3289,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3440,8 +3456,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3762,16 +3779,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="J418" sqref="J418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="124.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3804,6 +3822,9 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3818,6 +3839,9 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3832,6 +3856,9 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3846,6 +3873,9 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3860,6 +3890,9 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3874,6 +3907,9 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3888,6 +3924,9 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3902,6 +3941,9 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3916,6 +3958,9 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3930,6 +3975,9 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3944,6 +3992,9 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3958,6 +4009,9 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3972,6 +4026,9 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3986,6 +4043,9 @@
       <c r="D15" t="s">
         <v>20</v>
       </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4000,8 +4060,11 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -4014,8 +4077,11 @@
       <c r="D17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4028,8 +4094,11 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4042,8 +4111,11 @@
       <c r="D19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4056,8 +4128,11 @@
       <c r="D20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4070,8 +4145,11 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4084,8 +4162,11 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4098,8 +4179,11 @@
       <c r="D23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4112,8 +4196,11 @@
       <c r="D24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4126,8 +4213,11 @@
       <c r="D25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -4140,8 +4230,11 @@
       <c r="D26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4154,8 +4247,11 @@
       <c r="D27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4168,8 +4264,11 @@
       <c r="D28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4182,8 +4281,11 @@
       <c r="D29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4196,8 +4298,11 @@
       <c r="D30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4210,8 +4315,11 @@
       <c r="D31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4224,8 +4332,11 @@
       <c r="D32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4238,8 +4349,11 @@
       <c r="D33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -4252,8 +4366,11 @@
       <c r="D34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -4266,8 +4383,11 @@
       <c r="D35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -4280,8 +4400,11 @@
       <c r="D36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -4294,8 +4417,11 @@
       <c r="D37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -4308,8 +4434,11 @@
       <c r="D38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -4322,8 +4451,11 @@
       <c r="D39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -4336,8 +4468,11 @@
       <c r="D40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -4350,8 +4485,11 @@
       <c r="D41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -4364,8 +4502,11 @@
       <c r="D42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -4378,8 +4519,11 @@
       <c r="D43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -4392,8 +4536,11 @@
       <c r="D44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -4406,8 +4553,11 @@
       <c r="D45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -4420,8 +4570,11 @@
       <c r="D46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -4434,8 +4587,11 @@
       <c r="D47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -4448,8 +4604,11 @@
       <c r="D48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -4462,8 +4621,11 @@
       <c r="D49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -4476,8 +4638,11 @@
       <c r="D50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -4490,8 +4655,11 @@
       <c r="D51" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -4504,8 +4672,11 @@
       <c r="D52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -4518,8 +4689,11 @@
       <c r="D53" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -4532,8 +4706,11 @@
       <c r="D54" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -4546,8 +4723,11 @@
       <c r="D55" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -4560,8 +4740,11 @@
       <c r="D56" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -4575,7 +4758,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -4588,8 +4771,11 @@
       <c r="D58" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -4602,8 +4788,11 @@
       <c r="D59" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -4616,8 +4805,11 @@
       <c r="D60" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -4630,8 +4822,11 @@
       <c r="D61" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -4644,8 +4839,11 @@
       <c r="D62" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -4658,8 +4856,11 @@
       <c r="D63" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -4672,8 +4873,11 @@
       <c r="D64" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6</v>
       </c>
@@ -4686,8 +4890,11 @@
       <c r="D65" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7</v>
       </c>
@@ -4700,8 +4907,11 @@
       <c r="D66" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7</v>
       </c>
@@ -4714,8 +4924,11 @@
       <c r="D67" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -4728,8 +4941,11 @@
       <c r="D68" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7</v>
       </c>
@@ -4742,8 +4958,11 @@
       <c r="D69" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -4756,8 +4975,11 @@
       <c r="D70" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -4770,8 +4992,11 @@
       <c r="D71" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7</v>
       </c>
@@ -4784,8 +5009,11 @@
       <c r="D72" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7</v>
       </c>
@@ -4798,8 +5026,11 @@
       <c r="D73" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7</v>
       </c>
@@ -4812,8 +5043,11 @@
       <c r="D74" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7</v>
       </c>
@@ -4826,8 +5060,11 @@
       <c r="D75" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
@@ -4840,8 +5077,11 @@
       <c r="D76" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7</v>
       </c>
@@ -4854,8 +5094,11 @@
       <c r="D77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7</v>
       </c>
@@ -4868,8 +5111,11 @@
       <c r="D78" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7</v>
       </c>
@@ -4882,8 +5128,11 @@
       <c r="D79" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -4896,8 +5145,11 @@
       <c r="D80" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7</v>
       </c>
@@ -4910,8 +5162,11 @@
       <c r="D81" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -4924,8 +5179,11 @@
       <c r="D82" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7</v>
       </c>
@@ -4938,8 +5196,11 @@
       <c r="D83" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
@@ -4952,8 +5213,11 @@
       <c r="D84" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7</v>
       </c>
@@ -4966,8 +5230,11 @@
       <c r="D85" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>7</v>
       </c>
@@ -4980,8 +5247,11 @@
       <c r="D86" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7</v>
       </c>
@@ -4994,8 +5264,11 @@
       <c r="D87" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7</v>
       </c>
@@ -5008,8 +5281,11 @@
       <c r="D88" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7</v>
       </c>
@@ -5022,8 +5298,11 @@
       <c r="D89" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7</v>
       </c>
@@ -5036,8 +5315,11 @@
       <c r="D90" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8</v>
       </c>
@@ -5050,8 +5332,11 @@
       <c r="D91" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9</v>
       </c>
@@ -5064,8 +5349,11 @@
       <c r="D92" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9</v>
       </c>
@@ -5079,7 +5367,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9</v>
       </c>
@@ -5092,8 +5380,11 @@
       <c r="D94" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9</v>
       </c>
@@ -5107,7 +5398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10</v>
       </c>
@@ -5120,8 +5411,11 @@
       <c r="D96" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -5134,8 +5428,11 @@
       <c r="D97" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10</v>
       </c>
@@ -5148,8 +5445,11 @@
       <c r="D98" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10</v>
       </c>
@@ -5162,8 +5462,11 @@
       <c r="D99" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10</v>
       </c>
@@ -5176,8 +5479,11 @@
       <c r="D100" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
@@ -5190,8 +5496,11 @@
       <c r="D101" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10</v>
       </c>
@@ -5204,8 +5513,11 @@
       <c r="D102" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10</v>
       </c>
@@ -5218,8 +5530,11 @@
       <c r="D103" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10</v>
       </c>
@@ -5232,8 +5547,11 @@
       <c r="D104" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10</v>
       </c>
@@ -5246,8 +5564,11 @@
       <c r="D105" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10</v>
       </c>
@@ -5260,8 +5581,11 @@
       <c r="D106" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10</v>
       </c>
@@ -5274,8 +5598,11 @@
       <c r="D107" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11</v>
       </c>
@@ -5288,8 +5615,11 @@
       <c r="D108" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>11</v>
       </c>
@@ -5302,8 +5632,11 @@
       <c r="D109" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>13</v>
       </c>
@@ -5316,8 +5649,11 @@
       <c r="D110" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>13</v>
       </c>
@@ -5330,8 +5666,11 @@
       <c r="D111" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>13</v>
       </c>
@@ -5344,8 +5683,11 @@
       <c r="D112" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>13</v>
       </c>
@@ -5358,8 +5700,11 @@
       <c r="D113" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>13</v>
       </c>
@@ -5372,8 +5717,11 @@
       <c r="D114" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>13</v>
       </c>
@@ -5386,8 +5734,11 @@
       <c r="D115" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>13</v>
       </c>
@@ -5400,8 +5751,11 @@
       <c r="D116" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>13</v>
       </c>
@@ -5414,8 +5768,11 @@
       <c r="D117" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>13</v>
       </c>
@@ -5428,8 +5785,11 @@
       <c r="D118" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>13</v>
       </c>
@@ -5442,8 +5802,11 @@
       <c r="D119" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>13</v>
       </c>
@@ -5456,8 +5819,11 @@
       <c r="D120" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>13</v>
       </c>
@@ -5470,8 +5836,11 @@
       <c r="D121" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>13</v>
       </c>
@@ -5484,8 +5853,11 @@
       <c r="D122" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>13</v>
       </c>
@@ -5498,8 +5870,11 @@
       <c r="D123" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>13</v>
       </c>
@@ -5512,8 +5887,11 @@
       <c r="D124" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>13</v>
       </c>
@@ -5526,8 +5904,11 @@
       <c r="D125" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>13</v>
       </c>
@@ -5540,8 +5921,11 @@
       <c r="D126" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>13</v>
       </c>
@@ -5554,8 +5938,11 @@
       <c r="D127" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>13</v>
       </c>
@@ -5568,8 +5955,11 @@
       <c r="D128" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>13</v>
       </c>
@@ -5582,8 +5972,11 @@
       <c r="D129" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>13</v>
       </c>
@@ -5596,8 +5989,11 @@
       <c r="D130" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>13</v>
       </c>
@@ -5610,8 +6006,11 @@
       <c r="D131" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>13</v>
       </c>
@@ -5624,8 +6023,11 @@
       <c r="D132" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13</v>
       </c>
@@ -5638,8 +6040,11 @@
       <c r="D133" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>13</v>
       </c>
@@ -5652,8 +6057,11 @@
       <c r="D134" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>13</v>
       </c>
@@ -5666,8 +6074,11 @@
       <c r="D135" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>13</v>
       </c>
@@ -5681,7 +6092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>13</v>
       </c>
@@ -5694,8 +6105,11 @@
       <c r="D137" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>13</v>
       </c>
@@ -5708,8 +6122,11 @@
       <c r="D138" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>15</v>
       </c>
@@ -5722,8 +6139,11 @@
       <c r="D139" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>15</v>
       </c>
@@ -5736,8 +6156,11 @@
       <c r="D140" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>15</v>
       </c>
@@ -5750,8 +6173,11 @@
       <c r="D141" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>15</v>
       </c>
@@ -5764,8 +6190,11 @@
       <c r="D142" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>15</v>
       </c>
@@ -5778,8 +6207,11 @@
       <c r="D143" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>15</v>
       </c>
@@ -5792,8 +6224,11 @@
       <c r="D144" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>16</v>
       </c>
@@ -5806,8 +6241,11 @@
       <c r="D145" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>16</v>
       </c>
@@ -5820,8 +6258,11 @@
       <c r="D146" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>16</v>
       </c>
@@ -5834,8 +6275,11 @@
       <c r="D147" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>16</v>
       </c>
@@ -5848,10 +6292,13 @@
       <c r="D148" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -5862,8 +6309,11 @@
       <c r="D149" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>16</v>
       </c>
@@ -5876,8 +6326,11 @@
       <c r="D150" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>17</v>
       </c>
@@ -5890,8 +6343,11 @@
       <c r="D151" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>17</v>
       </c>
@@ -5904,8 +6360,11 @@
       <c r="D152" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>17</v>
       </c>
@@ -5918,8 +6377,11 @@
       <c r="D153" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>17</v>
       </c>
@@ -5932,8 +6394,11 @@
       <c r="D154" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>17</v>
       </c>
@@ -5946,8 +6411,11 @@
       <c r="D155" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>17</v>
       </c>
@@ -5960,8 +6428,11 @@
       <c r="D156" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>17</v>
       </c>
@@ -5974,8 +6445,11 @@
       <c r="D157" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>17</v>
       </c>
@@ -5988,8 +6462,11 @@
       <c r="D158" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>17</v>
       </c>
@@ -6002,8 +6479,11 @@
       <c r="D159" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>17</v>
       </c>
@@ -6016,8 +6496,11 @@
       <c r="D160" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>18</v>
       </c>
@@ -6030,8 +6513,11 @@
       <c r="D161" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>18</v>
       </c>
@@ -6044,8 +6530,11 @@
       <c r="D162" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>18</v>
       </c>
@@ -6058,8 +6547,11 @@
       <c r="D163" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>18</v>
       </c>
@@ -6072,8 +6564,11 @@
       <c r="D164" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>18</v>
       </c>
@@ -6086,8 +6581,11 @@
       <c r="D165" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>18</v>
       </c>
@@ -6100,8 +6598,11 @@
       <c r="D166" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>18</v>
       </c>
@@ -6114,8 +6615,11 @@
       <c r="D167" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>18</v>
       </c>
@@ -6128,8 +6632,11 @@
       <c r="D168" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>18</v>
       </c>
@@ -6142,8 +6649,11 @@
       <c r="D169" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>18</v>
       </c>
@@ -6156,8 +6666,11 @@
       <c r="D170" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>18</v>
       </c>
@@ -6170,8 +6683,11 @@
       <c r="D171" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>18</v>
       </c>
@@ -6184,8 +6700,11 @@
       <c r="D172" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>18</v>
       </c>
@@ -6198,8 +6717,11 @@
       <c r="D173" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>18</v>
       </c>
@@ -6212,8 +6734,11 @@
       <c r="D174" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>18</v>
       </c>
@@ -6226,8 +6751,11 @@
       <c r="D175" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>18</v>
       </c>
@@ -6240,8 +6768,11 @@
       <c r="D176" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>18</v>
       </c>
@@ -6254,8 +6785,11 @@
       <c r="D177" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>18</v>
       </c>
@@ -6268,8 +6802,11 @@
       <c r="D178" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>18</v>
       </c>
@@ -6282,8 +6819,11 @@
       <c r="D179" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>18</v>
       </c>
@@ -6296,8 +6836,11 @@
       <c r="D180" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>18</v>
       </c>
@@ -6310,8 +6853,11 @@
       <c r="D181" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>18</v>
       </c>
@@ -6324,8 +6870,11 @@
       <c r="D182" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>18</v>
       </c>
@@ -6338,8 +6887,11 @@
       <c r="D183" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -6352,8 +6904,11 @@
       <c r="D184" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>18</v>
       </c>
@@ -6366,8 +6921,11 @@
       <c r="D185" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>18</v>
       </c>
@@ -6380,8 +6938,11 @@
       <c r="D186" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>18</v>
       </c>
@@ -6394,8 +6955,11 @@
       <c r="D187" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>18</v>
       </c>
@@ -6408,8 +6972,11 @@
       <c r="D188" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>18</v>
       </c>
@@ -6422,8 +6989,11 @@
       <c r="D189" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>18</v>
       </c>
@@ -6436,8 +7006,11 @@
       <c r="D190" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>18</v>
       </c>
@@ -6450,8 +7023,11 @@
       <c r="D191" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>18</v>
       </c>
@@ -6464,8 +7040,11 @@
       <c r="D192" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>18</v>
       </c>
@@ -6478,8 +7057,11 @@
       <c r="D193" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>18</v>
       </c>
@@ -6492,8 +7074,11 @@
       <c r="D194" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>18</v>
       </c>
@@ -6506,8 +7091,11 @@
       <c r="D195" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>18</v>
       </c>
@@ -6520,8 +7108,11 @@
       <c r="D196" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>18</v>
       </c>
@@ -6534,8 +7125,11 @@
       <c r="D197" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>18</v>
       </c>
@@ -6548,8 +7142,11 @@
       <c r="D198" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>18</v>
       </c>
@@ -6562,8 +7159,11 @@
       <c r="D199" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>18</v>
       </c>
@@ -6576,8 +7176,11 @@
       <c r="D200" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>18</v>
       </c>
@@ -6590,8 +7193,11 @@
       <c r="D201" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>19</v>
       </c>
@@ -6604,8 +7210,11 @@
       <c r="D202" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>19</v>
       </c>
@@ -6618,8 +7227,11 @@
       <c r="D203" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>19</v>
       </c>
@@ -6632,8 +7244,11 @@
       <c r="D204" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>19</v>
       </c>
@@ -6646,8 +7261,11 @@
       <c r="D205" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>19</v>
       </c>
@@ -6660,8 +7278,11 @@
       <c r="D206" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>19</v>
       </c>
@@ -6674,8 +7295,11 @@
       <c r="D207" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>19</v>
       </c>
@@ -6688,8 +7312,11 @@
       <c r="D208" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>19</v>
       </c>
@@ -6702,8 +7329,11 @@
       <c r="D209" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>19</v>
       </c>
@@ -6716,8 +7346,11 @@
       <c r="D210" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>19</v>
       </c>
@@ -6730,8 +7363,11 @@
       <c r="D211" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>19</v>
       </c>
@@ -6744,8 +7380,11 @@
       <c r="D212" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>19</v>
       </c>
@@ -6758,8 +7397,11 @@
       <c r="D213" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>19</v>
       </c>
@@ -6772,8 +7414,11 @@
       <c r="D214" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>19</v>
       </c>
@@ -6786,8 +7431,11 @@
       <c r="D215" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>19</v>
       </c>
@@ -6800,8 +7448,11 @@
       <c r="D216" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>19</v>
       </c>
@@ -6814,8 +7465,11 @@
       <c r="D217" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>19</v>
       </c>
@@ -6828,8 +7482,11 @@
       <c r="D218" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>19</v>
       </c>
@@ -6842,8 +7499,11 @@
       <c r="D219" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>19</v>
       </c>
@@ -6856,8 +7516,11 @@
       <c r="D220" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>19</v>
       </c>
@@ -6870,8 +7533,11 @@
       <c r="D221" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>19</v>
       </c>
@@ -6884,8 +7550,11 @@
       <c r="D222" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>19</v>
       </c>
@@ -6898,8 +7567,11 @@
       <c r="D223" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>19</v>
       </c>
@@ -6912,8 +7584,11 @@
       <c r="D224" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>19</v>
       </c>
@@ -6926,8 +7601,11 @@
       <c r="D225" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>19</v>
       </c>
@@ -6940,8 +7618,11 @@
       <c r="D226" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>19</v>
       </c>
@@ -6954,8 +7635,11 @@
       <c r="D227" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>19</v>
       </c>
@@ -6968,8 +7652,11 @@
       <c r="D228" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>19</v>
       </c>
@@ -6982,8 +7669,11 @@
       <c r="D229" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>19</v>
       </c>
@@ -6996,8 +7686,11 @@
       <c r="D230" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>19</v>
       </c>
@@ -7010,8 +7703,11 @@
       <c r="D231" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>19</v>
       </c>
@@ -7024,8 +7720,11 @@
       <c r="D232" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>20</v>
       </c>
@@ -7038,8 +7737,11 @@
       <c r="D233" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>20</v>
       </c>
@@ -7052,8 +7754,11 @@
       <c r="D234" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>20</v>
       </c>
@@ -7066,8 +7771,11 @@
       <c r="D235" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>20</v>
       </c>
@@ -7080,8 +7788,11 @@
       <c r="D236" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>20</v>
       </c>
@@ -7094,8 +7805,11 @@
       <c r="D237" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>20</v>
       </c>
@@ -7108,8 +7822,11 @@
       <c r="D238" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>20</v>
       </c>
@@ -7122,8 +7839,11 @@
       <c r="D239" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>20</v>
       </c>
@@ -7136,8 +7856,11 @@
       <c r="D240" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>21</v>
       </c>
@@ -7150,8 +7873,11 @@
       <c r="D241" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>21</v>
       </c>
@@ -7164,8 +7890,11 @@
       <c r="D242" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>21</v>
       </c>
@@ -7178,8 +7907,11 @@
       <c r="D243" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>21</v>
       </c>
@@ -7192,8 +7924,11 @@
       <c r="D244" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>21</v>
       </c>
@@ -7206,8 +7941,11 @@
       <c r="D245" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>21</v>
       </c>
@@ -7220,8 +7958,11 @@
       <c r="D246" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>21</v>
       </c>
@@ -7234,8 +7975,11 @@
       <c r="D247" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>21</v>
       </c>
@@ -7248,8 +7992,11 @@
       <c r="D248" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>21</v>
       </c>
@@ -7262,8 +8009,11 @@
       <c r="D249" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>21</v>
       </c>
@@ -7276,8 +8026,11 @@
       <c r="D250" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>21</v>
       </c>
@@ -7290,8 +8043,11 @@
       <c r="D251" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>21</v>
       </c>
@@ -7304,8 +8060,11 @@
       <c r="D252" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>21</v>
       </c>
@@ -7318,8 +8077,11 @@
       <c r="D253" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>21</v>
       </c>
@@ -7332,8 +8094,11 @@
       <c r="D254" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>21</v>
       </c>
@@ -7346,8 +8111,11 @@
       <c r="D255" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>21</v>
       </c>
@@ -7360,8 +8128,11 @@
       <c r="D256" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>21</v>
       </c>
@@ -7374,8 +8145,11 @@
       <c r="D257" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>21</v>
       </c>
@@ -7388,8 +8162,11 @@
       <c r="D258" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>22</v>
       </c>
@@ -7402,8 +8179,11 @@
       <c r="D259" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>22</v>
       </c>
@@ -7416,8 +8196,11 @@
       <c r="D260" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>23</v>
       </c>
@@ -7430,8 +8213,11 @@
       <c r="D261" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>23</v>
       </c>
@@ -7444,8 +8230,11 @@
       <c r="D262" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>23</v>
       </c>
@@ -7458,8 +8247,11 @@
       <c r="D263" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>23</v>
       </c>
@@ -7472,8 +8264,11 @@
       <c r="D264" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>23</v>
       </c>
@@ -7486,8 +8281,11 @@
       <c r="D265" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>23</v>
       </c>
@@ -7500,8 +8298,11 @@
       <c r="D266" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>23</v>
       </c>
@@ -7514,8 +8315,11 @@
       <c r="D267" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>24</v>
       </c>
@@ -7528,8 +8332,11 @@
       <c r="D268" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>24</v>
       </c>
@@ -7542,8 +8349,11 @@
       <c r="D269" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>24</v>
       </c>
@@ -7556,8 +8366,11 @@
       <c r="D270" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>24</v>
       </c>
@@ -7570,8 +8383,11 @@
       <c r="D271" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>24</v>
       </c>
@@ -7584,8 +8400,11 @@
       <c r="D272" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>24</v>
       </c>
@@ -7598,8 +8417,11 @@
       <c r="D273" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>25</v>
       </c>
@@ -7612,8 +8434,11 @@
       <c r="D274" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>25</v>
       </c>
@@ -7626,8 +8451,11 @@
       <c r="D275" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>25</v>
       </c>
@@ -7640,8 +8468,11 @@
       <c r="D276" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>25</v>
       </c>
@@ -7654,8 +8485,11 @@
       <c r="D277" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>25</v>
       </c>
@@ -7668,8 +8502,11 @@
       <c r="D278" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>25</v>
       </c>
@@ -7682,8 +8519,11 @@
       <c r="D279" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>25</v>
       </c>
@@ -7696,8 +8536,11 @@
       <c r="D280" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>26</v>
       </c>
@@ -7710,8 +8553,11 @@
       <c r="D281" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>26</v>
       </c>
@@ -7724,8 +8570,11 @@
       <c r="D282" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>26</v>
       </c>
@@ -7738,8 +8587,11 @@
       <c r="D283" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>27</v>
       </c>
@@ -7752,8 +8604,11 @@
       <c r="D284" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>27</v>
       </c>
@@ -7766,8 +8621,11 @@
       <c r="D285" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>27</v>
       </c>
@@ -7780,8 +8638,11 @@
       <c r="D286" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>27</v>
       </c>
@@ -7794,8 +8655,11 @@
       <c r="D287" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>27</v>
       </c>
@@ -7808,8 +8672,11 @@
       <c r="D288" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>27</v>
       </c>
@@ -7822,8 +8689,11 @@
       <c r="D289" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>27</v>
       </c>
@@ -7836,8 +8706,11 @@
       <c r="D290" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>27</v>
       </c>
@@ -7850,8 +8723,11 @@
       <c r="D291" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>31</v>
       </c>
@@ -7864,8 +8740,11 @@
       <c r="D292" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>31</v>
       </c>
@@ -7878,8 +8757,11 @@
       <c r="D293" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>31</v>
       </c>
@@ -7892,8 +8774,11 @@
       <c r="D294" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>31</v>
       </c>
@@ -7906,8 +8791,11 @@
       <c r="D295" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>31</v>
       </c>
@@ -7920,8 +8808,11 @@
       <c r="D296" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>31</v>
       </c>
@@ -7934,8 +8825,11 @@
       <c r="D297" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>31</v>
       </c>
@@ -7948,8 +8842,11 @@
       <c r="D298" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>31</v>
       </c>
@@ -7962,8 +8859,11 @@
       <c r="D299" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>31</v>
       </c>
@@ -7976,8 +8876,11 @@
       <c r="D300" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>31</v>
       </c>
@@ -7990,8 +8893,11 @@
       <c r="D301" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>31</v>
       </c>
@@ -8004,8 +8910,11 @@
       <c r="D302" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>32</v>
       </c>
@@ -8018,8 +8927,11 @@
       <c r="D303" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>32</v>
       </c>
@@ -8032,8 +8944,11 @@
       <c r="D304" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>32</v>
       </c>
@@ -8046,8 +8961,11 @@
       <c r="D305" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>32</v>
       </c>
@@ -8060,8 +8978,11 @@
       <c r="D306" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>32</v>
       </c>
@@ -8074,8 +8995,11 @@
       <c r="D307" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>32</v>
       </c>
@@ -8088,8 +9012,11 @@
       <c r="D308" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>32</v>
       </c>
@@ -8102,8 +9029,11 @@
       <c r="D309" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>32</v>
       </c>
@@ -8116,8 +9046,11 @@
       <c r="D310" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>32</v>
       </c>
@@ -8130,8 +9063,11 @@
       <c r="D311" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>32</v>
       </c>
@@ -8144,8 +9080,11 @@
       <c r="D312" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>32</v>
       </c>
@@ -8158,8 +9097,11 @@
       <c r="D313" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>32</v>
       </c>
@@ -8172,8 +9114,11 @@
       <c r="D314" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>33</v>
       </c>
@@ -8186,8 +9131,11 @@
       <c r="D315" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>33</v>
       </c>
@@ -8200,8 +9148,11 @@
       <c r="D316" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>33</v>
       </c>
@@ -8214,8 +9165,11 @@
       <c r="D317" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>33</v>
       </c>
@@ -8228,8 +9182,11 @@
       <c r="D318" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>33</v>
       </c>
@@ -8242,8 +9199,11 @@
       <c r="D319" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>33</v>
       </c>
@@ -8256,8 +9216,11 @@
       <c r="D320" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>33</v>
       </c>
@@ -8270,8 +9233,11 @@
       <c r="D321" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>33</v>
       </c>
@@ -8284,8 +9250,11 @@
       <c r="D322" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>34</v>
       </c>
@@ -8298,8 +9267,11 @@
       <c r="D323" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>34</v>
       </c>
@@ -8312,8 +9284,11 @@
       <c r="D324" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>34</v>
       </c>
@@ -8326,8 +9301,11 @@
       <c r="D325" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>34</v>
       </c>
@@ -8340,8 +9318,11 @@
       <c r="D326" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>34</v>
       </c>
@@ -8354,8 +9335,11 @@
       <c r="D327" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>34</v>
       </c>
@@ -8368,8 +9352,11 @@
       <c r="D328" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>35</v>
       </c>
@@ -8382,8 +9369,11 @@
       <c r="D329" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>35</v>
       </c>
@@ -8397,7 +9387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>35</v>
       </c>
@@ -8410,8 +9400,11 @@
       <c r="D331" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>35</v>
       </c>
@@ -8425,7 +9418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>35</v>
       </c>
@@ -8438,8 +9431,11 @@
       <c r="D333" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>35</v>
       </c>
@@ -8453,7 +9449,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>35</v>
       </c>
@@ -8466,8 +9462,11 @@
       <c r="D335" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>35</v>
       </c>
@@ -8481,7 +9480,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>35</v>
       </c>
@@ -8494,8 +9493,11 @@
       <c r="D337" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>35</v>
       </c>
@@ -8509,7 +9511,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>36</v>
       </c>
@@ -8522,8 +9524,11 @@
       <c r="D339" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>36</v>
       </c>
@@ -8536,8 +9541,11 @@
       <c r="D340" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>36</v>
       </c>
@@ -8550,8 +9558,11 @@
       <c r="D341" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>36</v>
       </c>
@@ -8564,8 +9575,11 @@
       <c r="D342" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>36</v>
       </c>
@@ -8578,8 +9592,11 @@
       <c r="D343" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>37</v>
       </c>
@@ -8592,8 +9609,11 @@
       <c r="D344" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>37</v>
       </c>
@@ -8606,8 +9626,11 @@
       <c r="D345" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>37</v>
       </c>
@@ -8620,8 +9643,11 @@
       <c r="D346" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>37</v>
       </c>
@@ -8634,8 +9660,11 @@
       <c r="D347" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>37</v>
       </c>
@@ -8648,8 +9677,11 @@
       <c r="D348" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>38</v>
       </c>
@@ -8662,8 +9694,11 @@
       <c r="D349" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>38</v>
       </c>
@@ -8676,8 +9711,11 @@
       <c r="D350" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>38</v>
       </c>
@@ -8690,8 +9728,11 @@
       <c r="D351" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>38</v>
       </c>
@@ -8704,8 +9745,11 @@
       <c r="D352" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>38</v>
       </c>
@@ -8718,8 +9762,11 @@
       <c r="D353" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>38</v>
       </c>
@@ -8732,8 +9779,11 @@
       <c r="D354" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>38</v>
       </c>
@@ -8746,8 +9796,11 @@
       <c r="D355" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>38</v>
       </c>
@@ -8760,8 +9813,11 @@
       <c r="D356" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>38</v>
       </c>
@@ -8774,8 +9830,11 @@
       <c r="D357" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>38</v>
       </c>
@@ -8788,8 +9847,11 @@
       <c r="D358" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>38</v>
       </c>
@@ -8802,8 +9864,11 @@
       <c r="D359" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>38</v>
       </c>
@@ -8816,8 +9881,11 @@
       <c r="D360" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>38</v>
       </c>
@@ -8830,8 +9898,11 @@
       <c r="D361" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>38</v>
       </c>
@@ -8844,8 +9915,11 @@
       <c r="D362" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>38</v>
       </c>
@@ -8858,8 +9932,11 @@
       <c r="D363" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>38</v>
       </c>
@@ -8872,8 +9949,11 @@
       <c r="D364" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>38</v>
       </c>
@@ -8886,8 +9966,11 @@
       <c r="D365" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>38</v>
       </c>
@@ -8900,8 +9983,11 @@
       <c r="D366" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>38</v>
       </c>
@@ -8914,8 +10000,11 @@
       <c r="D367" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>38</v>
       </c>
@@ -8928,8 +10017,11 @@
       <c r="D368" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>38</v>
       </c>
@@ -8942,8 +10034,11 @@
       <c r="D369" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>38</v>
       </c>
@@ -8956,8 +10051,11 @@
       <c r="D370" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>38</v>
       </c>
@@ -8970,8 +10068,11 @@
       <c r="D371" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>38</v>
       </c>
@@ -8984,8 +10085,11 @@
       <c r="D372" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>38</v>
       </c>
@@ -8998,8 +10102,11 @@
       <c r="D373" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>38</v>
       </c>
@@ -9012,8 +10119,11 @@
       <c r="D374" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>38</v>
       </c>
@@ -9026,8 +10136,11 @@
       <c r="D375" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>38</v>
       </c>
@@ -9040,8 +10153,11 @@
       <c r="D376" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>38</v>
       </c>
@@ -9054,8 +10170,11 @@
       <c r="D377" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>38</v>
       </c>
@@ -9068,8 +10187,11 @@
       <c r="D378" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>38</v>
       </c>
@@ -9082,8 +10204,11 @@
       <c r="D379" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>38</v>
       </c>
@@ -9096,8 +10221,11 @@
       <c r="D380" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>38</v>
       </c>
@@ -9110,8 +10238,11 @@
       <c r="D381" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>38</v>
       </c>
@@ -9124,8 +10255,11 @@
       <c r="D382" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>38</v>
       </c>
@@ -9138,8 +10272,11 @@
       <c r="D383" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>38</v>
       </c>
@@ -9152,8 +10289,11 @@
       <c r="D384" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>38</v>
       </c>
@@ -9166,8 +10306,11 @@
       <c r="D385" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>38</v>
       </c>
@@ -9180,8 +10323,11 @@
       <c r="D386" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>38</v>
       </c>
@@ -9194,8 +10340,11 @@
       <c r="D387" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>39</v>
       </c>
@@ -9208,8 +10357,11 @@
       <c r="D388" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>39</v>
       </c>
@@ -9222,8 +10374,11 @@
       <c r="D389" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>39</v>
       </c>
@@ -9236,8 +10391,11 @@
       <c r="D390" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>39</v>
       </c>
@@ -9250,8 +10408,11 @@
       <c r="D391" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>39</v>
       </c>
@@ -9264,8 +10425,11 @@
       <c r="D392" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>40</v>
       </c>
@@ -9278,8 +10442,11 @@
       <c r="D393" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>40</v>
       </c>
@@ -9292,8 +10459,11 @@
       <c r="D394" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>40</v>
       </c>
@@ -9306,8 +10476,11 @@
       <c r="D395" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>40</v>
       </c>
@@ -9320,8 +10493,11 @@
       <c r="D396" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>40</v>
       </c>
@@ -9334,8 +10510,11 @@
       <c r="D397" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>40</v>
       </c>
@@ -9348,8 +10527,11 @@
       <c r="D398" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>40</v>
       </c>
@@ -9362,8 +10544,11 @@
       <c r="D399" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>40</v>
       </c>
@@ -9376,8 +10561,11 @@
       <c r="D400" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>40</v>
       </c>
@@ -9390,8 +10578,11 @@
       <c r="D401" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>40</v>
       </c>
@@ -9404,8 +10595,11 @@
       <c r="D402" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>41</v>
       </c>
@@ -9418,8 +10612,11 @@
       <c r="D403" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>41</v>
       </c>
@@ -9432,8 +10629,11 @@
       <c r="D404" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>41</v>
       </c>
@@ -9446,8 +10646,11 @@
       <c r="D405" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>41</v>
       </c>
@@ -9460,8 +10663,11 @@
       <c r="D406" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>41</v>
       </c>
@@ -9474,8 +10680,11 @@
       <c r="D407" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>41</v>
       </c>
@@ -9488,8 +10697,11 @@
       <c r="D408" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>41</v>
       </c>
@@ -9502,8 +10714,11 @@
       <c r="D409" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>41</v>
       </c>
@@ -9516,8 +10731,11 @@
       <c r="D410" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>42</v>
       </c>
@@ -9531,7 +10749,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>42</v>
       </c>
@@ -9545,7 +10763,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>42</v>
       </c>
@@ -9559,7 +10777,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>42</v>
       </c>
@@ -9573,7 +10791,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>42</v>
       </c>
@@ -9587,7 +10805,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>42</v>
       </c>
@@ -17797,11 +19015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17810,7 +19028,7 @@
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17820,8 +19038,9 @@
       <c r="C1" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17831,8 +19050,9 @@
       <c r="C2" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17842,8 +19062,9 @@
       <c r="C3" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17853,8 +19074,9 @@
       <c r="C4" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17864,8 +19086,9 @@
       <c r="C5" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17875,8 +19098,9 @@
       <c r="C6" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -17886,8 +19110,9 @@
       <c r="C7" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -17897,8 +19122,9 @@
       <c r="C8" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -17908,8 +19134,9 @@
       <c r="C9" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -17919,8 +19146,9 @@
       <c r="C10" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -17930,8 +19158,9 @@
       <c r="C11" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -17941,8 +19170,9 @@
       <c r="C12" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -17952,8 +19182,9 @@
       <c r="C13" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -17963,8 +19194,9 @@
       <c r="C14" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -17974,8 +19206,9 @@
       <c r="C15" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -17985,6 +19218,7 @@
       <c r="C16" t="s">
         <v>975</v>
       </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -18790,7 +20024,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B88">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B88">
     <sortCondition ref="B2:B88"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
